--- a/data/param_tuning/Dataset6/cnn_kernel_size.xlsx
+++ b/data/param_tuning/Dataset6/cnn_kernel_size.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8007</t>
+          <t>0.8089</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5121</t>
+          <t>0.584</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.4789</t>
+          <t>0.5406</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4744</t>
+          <t>0.5303</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8022</t>
+          <t>0.7941</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5893</t>
+          <t>0.4949</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5204</t>
+          <t>0.4696</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5206</t>
+          <t>0.4566</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.7904</t>
+          <t>0.8192</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.506</t>
+          <t>0.5433</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5097</t>
+          <t>0.5137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.4852</t>
+          <t>0.507</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7934</t>
+          <t>0.8162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.504</t>
+          <t>0.6085</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>0.5565</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.4834</t>
+          <t>0.5521</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.7911</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5481</t>
+          <t>0.5533</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5033</t>
+          <t>0.5381</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.474</t>
+          <t>0.5123</t>
         </is>
       </c>
     </row>
